--- a/Stand Count Means Separation Results.xlsx
+++ b/Stand Count Means Separation Results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Stand</t>
+          <t>Stems.Acre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -406,19 +406,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>524534.9999999998</v>
+        <v>524534.9999999999</v>
       </c>
       <c r="C2">
-        <v>78445.95573019377</v>
+        <v>78445.95543282978</v>
       </c>
       <c r="D2">
-        <v>26.45375489195422</v>
+        <v>26.45375566091444</v>
       </c>
       <c r="E2">
-        <v>264844.8376789339</v>
+        <v>266529.5709118309</v>
       </c>
       <c r="F2">
-        <v>784225.1623210657</v>
+        <v>782540.4290881689</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -438,19 +438,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>510014.9999999997</v>
+        <v>510014.9999999998</v>
       </c>
       <c r="C3">
-        <v>78445.95573019376</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D3">
-        <v>26.45375489195419</v>
+        <v>26.45375566091433</v>
       </c>
       <c r="E3">
-        <v>250324.8376789338</v>
+        <v>252009.5709118307</v>
       </c>
       <c r="F3">
-        <v>769705.1623210656</v>
+        <v>768020.4290881688</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -473,16 +473,16 @@
         <v>469177.4999999998</v>
       </c>
       <c r="C4">
-        <v>78445.95573019377</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D4">
-        <v>26.45375489195422</v>
+        <v>26.4537556609144</v>
       </c>
       <c r="E4">
-        <v>209487.3376789339</v>
+        <v>211172.0709118308</v>
       </c>
       <c r="F4">
-        <v>728867.6623210657</v>
+        <v>727182.9290881688</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -502,19 +502,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>423802.4999999997</v>
+        <v>423802.4999999998</v>
       </c>
       <c r="C5">
-        <v>78445.95573019376</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D5">
-        <v>26.45375489195419</v>
+        <v>26.45375566091433</v>
       </c>
       <c r="E5">
-        <v>164112.3376789337</v>
+        <v>165797.0709118307</v>
       </c>
       <c r="F5">
-        <v>683492.6623210656</v>
+        <v>681807.9290881688</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>419264.9999999997</v>
+        <v>419264.9999999998</v>
       </c>
       <c r="C6">
-        <v>78445.95573019379</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D6">
-        <v>26.45375489195419</v>
+        <v>26.4537556609144</v>
       </c>
       <c r="E6">
-        <v>159574.8376789337</v>
+        <v>161259.5709118308</v>
       </c>
       <c r="F6">
-        <v>678955.1623210658</v>
+        <v>677270.4290881688</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -569,16 +569,16 @@
         <v>414727.4999999998</v>
       </c>
       <c r="C7">
-        <v>78445.95573019377</v>
+        <v>78445.95543282978</v>
       </c>
       <c r="D7">
-        <v>26.45375489195422</v>
+        <v>26.4537556609144</v>
       </c>
       <c r="E7">
-        <v>155037.3376789339</v>
+        <v>156722.0709118308</v>
       </c>
       <c r="F7">
-        <v>674417.6623210657</v>
+        <v>672732.9290881689</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>402022.4999999997</v>
+        <v>402022.4999999998</v>
       </c>
       <c r="C8">
-        <v>78445.95573019375</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D8">
-        <v>26.45375489195419</v>
+        <v>26.4537556609144</v>
       </c>
       <c r="E8">
-        <v>142332.3376789338</v>
+        <v>144017.0709118308</v>
       </c>
       <c r="F8">
-        <v>661712.6623210656</v>
+        <v>660027.9290881688</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -630,19 +630,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>387502.4999999998</v>
+        <v>387502.4999999999</v>
       </c>
       <c r="C9">
-        <v>78445.95573019375</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D9">
-        <v>26.45375489195422</v>
+        <v>26.45375566091444</v>
       </c>
       <c r="E9">
-        <v>127812.337678934</v>
+        <v>129497.0709118309</v>
       </c>
       <c r="F9">
-        <v>647192.6623210656</v>
+        <v>645507.9290881688</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -658,23 +658,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VWG4113</t>
+          <t>NWG4113</t>
         </is>
       </c>
       <c r="B10">
-        <v>338754.2462848189</v>
+        <v>308161.9180071533</v>
       </c>
       <c r="C10">
-        <v>144758.3187643161</v>
+        <v>88308.24437664695</v>
       </c>
       <c r="D10">
-        <v>51.82986166813603</v>
+        <v>33.95205762050533</v>
       </c>
       <c r="E10">
-        <v>-117500.4910033436</v>
+        <v>24079.69557436742</v>
       </c>
       <c r="F10">
-        <v>795008.9835729814</v>
+        <v>592244.1404399391</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -690,23 +690,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NWG4113</t>
+          <t>Tibor</t>
         </is>
       </c>
       <c r="B11">
-        <v>308161.91790506</v>
+        <v>302197.4999999998</v>
       </c>
       <c r="C11">
-        <v>88308.24462255902</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D11">
-        <v>33.95205681983695</v>
+        <v>26.45375566091437</v>
       </c>
       <c r="E11">
-        <v>22291.22103348596</v>
+        <v>44192.07091183076</v>
       </c>
       <c r="F11">
-        <v>594032.614776634</v>
+        <v>560202.9290881688</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -722,23 +722,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tibor</t>
+          <t>NWG2463</t>
         </is>
       </c>
       <c r="B12">
-        <v>302197.4999999997</v>
+        <v>284047.4999999998</v>
       </c>
       <c r="C12">
-        <v>78445.95573019376</v>
+        <v>78445.95543282978</v>
       </c>
       <c r="D12">
-        <v>26.45375489195422</v>
+        <v>26.45375566091444</v>
       </c>
       <c r="E12">
-        <v>42507.33767893387</v>
+        <v>26042.07091183082</v>
       </c>
       <c r="F12">
-        <v>561887.6623210656</v>
+        <v>542052.9290881688</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -754,23 +754,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NWG2463</t>
+          <t>Santhica</t>
         </is>
       </c>
       <c r="B13">
-        <v>284047.4999999997</v>
+        <v>274972.4999999998</v>
       </c>
       <c r="C13">
-        <v>78445.95573019376</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D13">
-        <v>26.45375489195422</v>
+        <v>26.45375566091448</v>
       </c>
       <c r="E13">
-        <v>24357.33767893381</v>
+        <v>16967.07091183082</v>
       </c>
       <c r="F13">
-        <v>543737.6623210656</v>
+        <v>532977.9290881688</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -786,23 +786,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Santhica</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="B14">
-        <v>274972.4999999997</v>
+        <v>256822.4999999998</v>
       </c>
       <c r="C14">
-        <v>78445.95573019377</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D14">
-        <v>26.45375489195422</v>
+        <v>26.4537556609144</v>
       </c>
       <c r="E14">
-        <v>15282.33767893375</v>
+        <v>-1182.929088169243</v>
       </c>
       <c r="F14">
-        <v>534662.6623210656</v>
+        <v>514827.9290881688</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -818,23 +818,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Futura83</t>
         </is>
       </c>
       <c r="B15">
-        <v>256822.4999999997</v>
+        <v>246839.9999999998</v>
       </c>
       <c r="C15">
-        <v>78445.95573019379</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D15">
-        <v>26.45375489195422</v>
+        <v>26.45375566091444</v>
       </c>
       <c r="E15">
-        <v>-2867.662321066222</v>
+        <v>-11165.42908816913</v>
       </c>
       <c r="F15">
-        <v>516512.6623210657</v>
+        <v>504845.4290881688</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -850,23 +850,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Futura83</t>
+          <t>Henola</t>
         </is>
       </c>
       <c r="B16">
-        <v>246839.9999999997</v>
+        <v>212354.9999999998</v>
       </c>
       <c r="C16">
-        <v>78445.95573019376</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D16">
-        <v>26.45375489195422</v>
+        <v>26.45375566091433</v>
       </c>
       <c r="E16">
-        <v>-12850.16232106613</v>
+        <v>-45650.42908816927</v>
       </c>
       <c r="F16">
-        <v>506530.1623210656</v>
+        <v>470360.4290881689</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -882,23 +882,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Henola</t>
+          <t>Bialob</t>
         </is>
       </c>
       <c r="B17">
-        <v>212354.9999999997</v>
+        <v>160627.4999999998</v>
       </c>
       <c r="C17">
-        <v>78445.95573019375</v>
+        <v>78445.95543282978</v>
       </c>
       <c r="D17">
-        <v>26.45375489195426</v>
+        <v>26.45375566091437</v>
       </c>
       <c r="E17">
-        <v>-47335.16232106619</v>
+        <v>-97377.92908816924</v>
       </c>
       <c r="F17">
-        <v>472045.1623210655</v>
+        <v>418632.9290881689</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -914,23 +914,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bialob</t>
+          <t>CFX-2</t>
         </is>
       </c>
       <c r="B18">
-        <v>160627.4999999997</v>
+        <v>157904.9999999998</v>
       </c>
       <c r="C18">
-        <v>78445.95573019376</v>
+        <v>78445.95543282977</v>
       </c>
       <c r="D18">
-        <v>26.45375489195415</v>
+        <v>26.4537556609144</v>
       </c>
       <c r="E18">
-        <v>-99062.66232106622</v>
+        <v>-100100.4290881692</v>
       </c>
       <c r="F18">
-        <v>420317.6623210656</v>
+        <v>415910.4290881688</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -946,27 +946,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CFX-2</t>
+          <t>Amaze</t>
         </is>
       </c>
       <c r="B19">
-        <v>157904.9999999997</v>
+        <v>94379.99999999876</v>
       </c>
       <c r="C19">
-        <v>78445.95573019376</v>
+        <v>78445.95543282983</v>
       </c>
       <c r="D19">
-        <v>26.45375489195422</v>
+        <v>26.453755660915</v>
       </c>
       <c r="E19">
-        <v>-101785.1623210661</v>
+        <v>-163625.4290881699</v>
       </c>
       <c r="F19">
-        <v>417595.1623210656</v>
+        <v>352385.4290881674</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ab</t>
+          <t xml:space="preserve">  b</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -978,59 +978,59 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amaze</t>
+          <t>Felina</t>
         </is>
       </c>
       <c r="B20">
-        <v>94380.0000000013</v>
+        <v>1900045.75</v>
       </c>
       <c r="C20">
-        <v>78445.9557301935</v>
+        <v>126430.8766028942</v>
       </c>
       <c r="D20">
-        <v>26.4537548919543</v>
+        <v>53.0000000000003</v>
       </c>
       <c r="E20">
-        <v>-165310.1623210637</v>
+        <v>1504374.903293189</v>
       </c>
       <c r="F20">
-        <v>354070.1623210663</v>
+        <v>2295716.596706811</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  b</t>
+          <t xml:space="preserve"> a     </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Buffalo County</t>
+          <t>Chippewa County</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Felina</t>
+          <t>Ferimon</t>
         </is>
       </c>
       <c r="B21">
-        <v>1900045.75</v>
+        <v>1736177.25</v>
       </c>
       <c r="C21">
         <v>126430.8766028942</v>
       </c>
       <c r="D21">
-        <v>53.0000000000003</v>
+        <v>52.99999999999994</v>
       </c>
       <c r="E21">
-        <v>1504374.903293189</v>
+        <v>1340506.403293189</v>
       </c>
       <c r="F21">
-        <v>2295716.596706811</v>
+        <v>2131848.096706811</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a     </t>
+          <t xml:space="preserve"> ab    </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1042,11 +1042,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ferimon</t>
+          <t>Enectarol</t>
         </is>
       </c>
       <c r="B22">
-        <v>1736177.25</v>
+        <v>1555714.25</v>
       </c>
       <c r="C22">
         <v>126430.8766028942</v>
@@ -1055,14 +1055,14 @@
         <v>52.99999999999994</v>
       </c>
       <c r="E22">
-        <v>1340506.403293189</v>
+        <v>1160043.403293189</v>
       </c>
       <c r="F22">
-        <v>2131848.096706811</v>
+        <v>1951385.096706812</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ab    </t>
+          <t xml:space="preserve"> abc   </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1074,27 +1074,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Enectarol</t>
+          <t>Santhica</t>
         </is>
       </c>
       <c r="B23">
-        <v>1555714.25</v>
+        <v>1446468.666666667</v>
       </c>
       <c r="C23">
-        <v>126430.8766028942</v>
+        <v>147386.8647040704</v>
       </c>
       <c r="D23">
         <v>52.99999999999994</v>
       </c>
       <c r="E23">
-        <v>1160043.403293189</v>
+        <v>985215.1570980493</v>
       </c>
       <c r="F23">
-        <v>1951385.096706812</v>
+        <v>1907722.176235284</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> abc   </t>
+          <t xml:space="preserve"> abcd  </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1106,23 +1106,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Santhica</t>
+          <t>Futura</t>
         </is>
       </c>
       <c r="B24">
-        <v>1446468.666666667</v>
+        <v>1408440.25</v>
       </c>
       <c r="C24">
-        <v>147386.8647040704</v>
+        <v>126430.8766028942</v>
       </c>
       <c r="D24">
         <v>52.99999999999994</v>
       </c>
       <c r="E24">
-        <v>985215.1570980493</v>
+        <v>1012769.403293189</v>
       </c>
       <c r="F24">
-        <v>1907722.176235284</v>
+        <v>1804111.096706811</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1138,11 +1138,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Futura</t>
+          <t>Bialob</t>
         </is>
       </c>
       <c r="B25">
-        <v>1408440.25</v>
+        <v>1304725.75</v>
       </c>
       <c r="C25">
         <v>126430.8766028942</v>
@@ -1151,14 +1151,14 @@
         <v>52.99999999999994</v>
       </c>
       <c r="E25">
-        <v>1012769.403293189</v>
+        <v>909054.9032931889</v>
       </c>
       <c r="F25">
-        <v>1804111.096706811</v>
+        <v>1700396.596706812</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> abcd  </t>
+          <t xml:space="preserve"> abcde </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1170,23 +1170,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bialob</t>
+          <t>Tibor</t>
         </is>
       </c>
       <c r="B26">
-        <v>1304725.75</v>
+        <v>1252868.5</v>
       </c>
       <c r="C26">
         <v>126430.8766028942</v>
       </c>
       <c r="D26">
-        <v>52.99999999999994</v>
+        <v>53.00000000000012</v>
       </c>
       <c r="E26">
-        <v>909054.9032931889</v>
+        <v>857197.6532931891</v>
       </c>
       <c r="F26">
-        <v>1700396.596706812</v>
+        <v>1648539.346706811</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1202,27 +1202,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tibor</t>
+          <t>Fibror</t>
         </is>
       </c>
       <c r="B27">
-        <v>1252868.5</v>
+        <v>1205160</v>
       </c>
       <c r="C27">
         <v>126430.8766028942</v>
       </c>
       <c r="D27">
-        <v>53.00000000000012</v>
+        <v>52.99999999999994</v>
       </c>
       <c r="E27">
-        <v>857197.6532931891</v>
+        <v>809489.1532931888</v>
       </c>
       <c r="F27">
-        <v>1648539.346706811</v>
+        <v>1600830.846706811</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> abcde </t>
+          <t xml:space="preserve">  bcde </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1234,27 +1234,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fibror</t>
+          <t>NWG2730</t>
         </is>
       </c>
       <c r="B28">
-        <v>1205160</v>
+        <v>995657</v>
       </c>
       <c r="C28">
         <v>126430.8766028942</v>
       </c>
       <c r="D28">
-        <v>52.99999999999994</v>
+        <v>53.00000000000012</v>
       </c>
       <c r="E28">
-        <v>809489.1532931888</v>
+        <v>599986.1532931889</v>
       </c>
       <c r="F28">
-        <v>1600830.846706811</v>
+        <v>1391327.846706811</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  bcde </t>
+          <t xml:space="preserve">   cdef</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1266,11 +1266,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NWG2730</t>
+          <t>NWG2463</t>
         </is>
       </c>
       <c r="B29">
-        <v>995657</v>
+        <v>920982.7500000001</v>
       </c>
       <c r="C29">
         <v>126430.8766028942</v>
@@ -1279,10 +1279,10 @@
         <v>53.00000000000012</v>
       </c>
       <c r="E29">
-        <v>599986.1532931889</v>
+        <v>525311.9032931889</v>
       </c>
       <c r="F29">
-        <v>1391327.846706811</v>
+        <v>1316653.596706811</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1298,23 +1298,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NWG2463</t>
+          <t>NWG4113</t>
         </is>
       </c>
       <c r="B30">
-        <v>920982.7500000001</v>
+        <v>889868.7500000001</v>
       </c>
       <c r="C30">
         <v>126430.8766028942</v>
       </c>
       <c r="D30">
-        <v>53.00000000000012</v>
+        <v>52.99999999999994</v>
       </c>
       <c r="E30">
-        <v>525311.9032931889</v>
+        <v>494197.9032931888</v>
       </c>
       <c r="F30">
-        <v>1316653.596706811</v>
+        <v>1285539.596706811</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1330,11 +1330,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NWG4113</t>
+          <t>Earlina</t>
         </is>
       </c>
       <c r="B31">
-        <v>889868.7500000001</v>
+        <v>804823.0000000002</v>
       </c>
       <c r="C31">
         <v>126430.8766028942</v>
@@ -1343,14 +1343,14 @@
         <v>52.99999999999994</v>
       </c>
       <c r="E31">
-        <v>494197.9032931888</v>
+        <v>409152.153293189</v>
       </c>
       <c r="F31">
-        <v>1285539.596706811</v>
+        <v>1200493.846706812</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">   cdef</t>
+          <t xml:space="preserve">    def</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1362,23 +1362,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Earlina</t>
+          <t>Carmenecta</t>
         </is>
       </c>
       <c r="B32">
-        <v>804823.0000000002</v>
+        <v>730148.5000000001</v>
       </c>
       <c r="C32">
         <v>126430.8766028942</v>
       </c>
       <c r="D32">
-        <v>52.99999999999994</v>
+        <v>53.00000000000012</v>
       </c>
       <c r="E32">
-        <v>409152.153293189</v>
+        <v>334477.6532931891</v>
       </c>
       <c r="F32">
-        <v>1200493.846706812</v>
+        <v>1125819.346706811</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1394,27 +1394,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Carmenecta</t>
+          <t>CFX-2</t>
         </is>
       </c>
       <c r="B33">
-        <v>730148.5000000001</v>
+        <v>676217.2500000001</v>
       </c>
       <c r="C33">
         <v>126430.8766028942</v>
       </c>
       <c r="D33">
-        <v>53.00000000000012</v>
+        <v>53.0000000000003</v>
       </c>
       <c r="E33">
-        <v>334477.6532931891</v>
+        <v>280546.4032931891</v>
       </c>
       <c r="F33">
-        <v>1125819.346706811</v>
+        <v>1071888.096706811</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    def</t>
+          <t xml:space="preserve">     ef</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1426,23 +1426,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CFX-2</t>
+          <t>NWG4000</t>
         </is>
       </c>
       <c r="B34">
-        <v>676217.2500000001</v>
+        <v>669994.2500000001</v>
       </c>
       <c r="C34">
         <v>126430.8766028942</v>
       </c>
       <c r="D34">
-        <v>53.0000000000003</v>
+        <v>53.00000000000012</v>
       </c>
       <c r="E34">
-        <v>280546.4032931891</v>
+        <v>274323.403293189</v>
       </c>
       <c r="F34">
-        <v>1071888.096706811</v>
+        <v>1065665.096706811</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1458,23 +1458,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NWG4000</t>
+          <t>Henola</t>
         </is>
       </c>
       <c r="B35">
-        <v>669994.2500000001</v>
+        <v>640954.2500000002</v>
       </c>
       <c r="C35">
         <v>126430.8766028942</v>
       </c>
       <c r="D35">
-        <v>53.00000000000012</v>
+        <v>53.0000000000003</v>
       </c>
       <c r="E35">
-        <v>274323.403293189</v>
+        <v>245283.4032931892</v>
       </c>
       <c r="F35">
-        <v>1065665.096706811</v>
+        <v>1036625.096706811</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1490,27 +1490,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Henola</t>
+          <t>Amaze</t>
         </is>
       </c>
       <c r="B36">
-        <v>640954.2500000002</v>
+        <v>504009.9999999956</v>
       </c>
       <c r="C36">
-        <v>126430.8766028942</v>
+        <v>126430.8766028951</v>
       </c>
       <c r="D36">
-        <v>53.0000000000003</v>
+        <v>52.99999999999781</v>
       </c>
       <c r="E36">
-        <v>245283.4032931892</v>
+        <v>108339.1532931807</v>
       </c>
       <c r="F36">
-        <v>1036625.096706811</v>
+        <v>899680.8467068104</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">     ef</t>
+          <t xml:space="preserve">      f</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1522,23 +1522,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Amaze</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="B37">
-        <v>504009.9999999956</v>
+        <v>477086.0000000002</v>
       </c>
       <c r="C37">
-        <v>126430.8766028951</v>
+        <v>126430.8766028942</v>
       </c>
       <c r="D37">
-        <v>52.99999999999781</v>
+        <v>52.99999999999994</v>
       </c>
       <c r="E37">
-        <v>108339.1532931807</v>
+        <v>81415.15329318889</v>
       </c>
       <c r="F37">
-        <v>899680.8467068104</v>
+        <v>872756.8467068115</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1554,55 +1554,55 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Enectarol</t>
         </is>
       </c>
       <c r="B38">
-        <v>477086.0000000002</v>
+        <v>568095.0000000006</v>
       </c>
       <c r="C38">
-        <v>126430.8766028942</v>
+        <v>64582.68740014535</v>
       </c>
       <c r="D38">
-        <v>52.99999999999994</v>
+        <v>16.60934192228761</v>
       </c>
       <c r="E38">
-        <v>81415.15329318889</v>
+        <v>354463.5337904219</v>
       </c>
       <c r="F38">
-        <v>872756.8467068115</v>
+        <v>781726.4662095793</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      f</t>
+          <t xml:space="preserve"> a </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Chippewa County</t>
+          <t>Whirling Thunder</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Enectarol</t>
+          <t>Futura83</t>
         </is>
       </c>
       <c r="B39">
-        <v>568095.0000000006</v>
+        <v>560835.0000000006</v>
       </c>
       <c r="C39">
-        <v>64582.68740014535</v>
+        <v>64582.68740014536</v>
       </c>
       <c r="D39">
         <v>16.60934192228761</v>
       </c>
       <c r="E39">
-        <v>354463.5337904219</v>
+        <v>347203.5337904219</v>
       </c>
       <c r="F39">
-        <v>781726.4662095793</v>
+        <v>774466.4662095793</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1618,27 +1618,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Futura83</t>
+          <t>Ferimon</t>
         </is>
       </c>
       <c r="B40">
-        <v>560835.0000000006</v>
+        <v>424710.0000000006</v>
       </c>
       <c r="C40">
-        <v>64582.68740014536</v>
+        <v>64582.68740014535</v>
       </c>
       <c r="D40">
-        <v>16.60934192228761</v>
+        <v>16.60934192228757</v>
       </c>
       <c r="E40">
-        <v>347203.5337904219</v>
+        <v>211078.5337904219</v>
       </c>
       <c r="F40">
-        <v>774466.4662095793</v>
+        <v>638341.4662095793</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a </t>
+          <t xml:space="preserve"> ab</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1650,23 +1650,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ferimon</t>
+          <t>Muka</t>
         </is>
       </c>
       <c r="B41">
-        <v>424710.0000000006</v>
+        <v>421987.5000000006</v>
       </c>
       <c r="C41">
-        <v>64582.68740014535</v>
+        <v>64582.68740014537</v>
       </c>
       <c r="D41">
-        <v>16.60934192228757</v>
+        <v>16.60934192228758</v>
       </c>
       <c r="E41">
-        <v>211078.5337904219</v>
+        <v>208356.0337904219</v>
       </c>
       <c r="F41">
-        <v>638341.4662095793</v>
+        <v>635618.9662095793</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1682,23 +1682,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Muka</t>
+          <t>Bialob</t>
         </is>
       </c>
       <c r="B42">
-        <v>421987.5000000006</v>
+        <v>394762.5000000011</v>
       </c>
       <c r="C42">
-        <v>64582.68740014537</v>
+        <v>64582.68740014542</v>
       </c>
       <c r="D42">
-        <v>16.60934192228758</v>
+        <v>16.60934192228732</v>
       </c>
       <c r="E42">
-        <v>208356.0337904219</v>
+        <v>181131.0337904217</v>
       </c>
       <c r="F42">
-        <v>635618.9662095793</v>
+        <v>608393.9662095805</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1714,23 +1714,23 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bialob</t>
+          <t>Fibror79</t>
         </is>
       </c>
       <c r="B43">
-        <v>394762.5000000011</v>
+        <v>377520.0000000006</v>
       </c>
       <c r="C43">
-        <v>64582.68740014542</v>
+        <v>64582.68740014535</v>
       </c>
       <c r="D43">
-        <v>16.60934192228732</v>
+        <v>16.60934192228761</v>
       </c>
       <c r="E43">
-        <v>181131.0337904217</v>
+        <v>163888.5337904219</v>
       </c>
       <c r="F43">
-        <v>608393.9662095805</v>
+        <v>591151.4662095793</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1746,23 +1746,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fibror79</t>
+          <t>Orion33</t>
         </is>
       </c>
       <c r="B44">
-        <v>377520.0000000006</v>
+        <v>372982.5000000006</v>
       </c>
       <c r="C44">
-        <v>64582.68740014535</v>
+        <v>64582.68740014536</v>
       </c>
       <c r="D44">
-        <v>16.60934192228761</v>
+        <v>16.60934192228759</v>
       </c>
       <c r="E44">
-        <v>163888.5337904219</v>
+        <v>159351.0337904219</v>
       </c>
       <c r="F44">
-        <v>591151.4662095793</v>
+        <v>586613.9662095793</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1778,23 +1778,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Orion33</t>
+          <t>Futura75</t>
         </is>
       </c>
       <c r="B45">
-        <v>372982.5000000006</v>
+        <v>364815.0000000006</v>
       </c>
       <c r="C45">
         <v>64582.68740014536</v>
       </c>
       <c r="D45">
-        <v>16.60934192228759</v>
+        <v>16.60934192228761</v>
       </c>
       <c r="E45">
-        <v>159351.0337904219</v>
+        <v>151183.5337904219</v>
       </c>
       <c r="F45">
-        <v>586613.9662095793</v>
+        <v>578446.4662095793</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1810,23 +1810,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Futura75</t>
+          <t>Carmenecta</t>
         </is>
       </c>
       <c r="B46">
-        <v>364815.0000000006</v>
+        <v>347572.5000000006</v>
       </c>
       <c r="C46">
-        <v>64582.68740014536</v>
+        <v>64582.68740014535</v>
       </c>
       <c r="D46">
         <v>16.60934192228761</v>
       </c>
       <c r="E46">
-        <v>151183.5337904219</v>
+        <v>133941.0337904219</v>
       </c>
       <c r="F46">
-        <v>578446.4662095793</v>
+        <v>561203.9662095793</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1842,23 +1842,23 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carmenecta</t>
+          <t>Santhica70</t>
         </is>
       </c>
       <c r="B47">
-        <v>347572.5000000006</v>
+        <v>324885.0000000006</v>
       </c>
       <c r="C47">
         <v>64582.68740014535</v>
       </c>
       <c r="D47">
-        <v>16.60934192228761</v>
+        <v>16.60934192228759</v>
       </c>
       <c r="E47">
-        <v>133941.0337904219</v>
+        <v>111253.533790422</v>
       </c>
       <c r="F47">
-        <v>561203.9662095793</v>
+        <v>538516.4662095793</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1874,27 +1874,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Santhica70</t>
+          <t>Tibor</t>
         </is>
       </c>
       <c r="B48">
-        <v>324885.0000000006</v>
+        <v>277695.0000000006</v>
       </c>
       <c r="C48">
         <v>64582.68740014535</v>
       </c>
       <c r="D48">
-        <v>16.60934192228759</v>
+        <v>16.60934192228761</v>
       </c>
       <c r="E48">
-        <v>111253.533790422</v>
+        <v>64063.53379042193</v>
       </c>
       <c r="F48">
-        <v>538516.4662095793</v>
+        <v>491326.4662095793</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ab</t>
+          <t xml:space="preserve">  b</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -1906,23 +1906,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tibor</t>
+          <t>USO31</t>
         </is>
       </c>
       <c r="B49">
-        <v>277695.0000000006</v>
+        <v>209632.5000000006</v>
       </c>
       <c r="C49">
         <v>64582.68740014535</v>
       </c>
       <c r="D49">
-        <v>16.60934192228761</v>
+        <v>16.60934192228757</v>
       </c>
       <c r="E49">
-        <v>64063.53379042193</v>
+        <v>-3998.966209578095</v>
       </c>
       <c r="F49">
-        <v>491326.4662095793</v>
+        <v>423263.9662095793</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1930,38 +1930,6 @@
         </is>
       </c>
       <c r="H49" t="inlineStr">
-        <is>
-          <t>Whirling Thunder</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>USO31</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>209632.5000000006</v>
-      </c>
-      <c r="C50">
-        <v>64582.68740014535</v>
-      </c>
-      <c r="D50">
-        <v>16.60934192228757</v>
-      </c>
-      <c r="E50">
-        <v>-3998.966209578095</v>
-      </c>
-      <c r="F50">
-        <v>423263.9662095793</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  b</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>Whirling Thunder</t>
         </is>
